--- a/PERSONAL-ATENDANCE.xlsx
+++ b/PERSONAL-ATENDANCE.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
   <si>
     <t xml:space="preserve">PERSONAL ATENDANCE</t>
   </si>
@@ -75,7 +75,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="DD\-MMM\-YY"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -114,13 +114,6 @@
       <family val="0"/>
       <charset val="1"/>
     </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="0"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -164,7 +157,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -186,10 +179,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -220,8 +209,8 @@
   </sheetPr>
   <dimension ref="A2:N1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J11" activeCellId="0" sqref="J11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -342,15 +331,15 @@
       <c r="D8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="5"/>
@@ -365,15 +354,15 @@
       <c r="D10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="1" t="s">
@@ -387,18 +376,18 @@
       <c r="C13" s="5" t="n">
         <v>43402</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
@@ -407,18 +396,18 @@
       <c r="C15" s="5" t="n">
         <v>43404</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
@@ -427,13 +416,16 @@
       <c r="C17" s="5" t="n">
         <v>43406</v>
       </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
+      <c r="D17" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
     </row>
     <row r="19" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="1" t="s">
@@ -447,13 +439,13 @@
       <c r="C20" s="5" t="n">
         <v>43409</v>
       </c>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
@@ -462,13 +454,13 @@
       <c r="C22" s="5" t="n">
         <v>43411</v>
       </c>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
@@ -477,13 +469,13 @@
       <c r="C24" s="5" t="n">
         <v>43413</v>
       </c>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
     </row>
     <row r="25" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D25" s="5"/>
@@ -501,13 +493,13 @@
       <c r="C27" s="5" t="n">
         <v>43416</v>
       </c>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
     </row>
     <row r="28" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D28" s="5"/>
@@ -519,13 +511,13 @@
       <c r="C29" s="5" t="n">
         <v>43418</v>
       </c>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
     </row>
     <row r="30" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D30" s="5"/>
@@ -537,13 +529,13 @@
       <c r="C31" s="5" t="n">
         <v>43420</v>
       </c>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
     </row>
     <row r="32" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D32" s="5"/>
@@ -561,13 +553,13 @@
       <c r="C34" s="5" t="n">
         <v>43423</v>
       </c>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
     </row>
     <row r="35" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D35" s="5"/>
@@ -579,13 +571,13 @@
       <c r="C36" s="5" t="n">
         <v>43425</v>
       </c>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
     </row>
     <row r="37" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D37" s="5"/>
@@ -597,13 +589,13 @@
       <c r="C38" s="5" t="n">
         <v>43427</v>
       </c>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
     </row>
     <row r="39" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D39" s="5"/>
@@ -621,13 +613,13 @@
       <c r="C41" s="5" t="n">
         <v>43430</v>
       </c>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="8"/>
-      <c r="L41" s="8"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
     </row>
     <row r="42" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D42" s="5"/>
@@ -639,13 +631,13 @@
       <c r="C43" s="5" t="n">
         <v>43432</v>
       </c>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
-      <c r="L43" s="8"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
     </row>
     <row r="44" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D44" s="5"/>
@@ -657,13 +649,13 @@
       <c r="C45" s="5" t="n">
         <v>43434</v>
       </c>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
-      <c r="J45" s="8"/>
-      <c r="K45" s="8"/>
-      <c r="L45" s="8"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
     </row>
     <row r="46" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D46" s="5"/>
@@ -681,13 +673,13 @@
       <c r="C48" s="5" t="n">
         <v>43437</v>
       </c>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8"/>
-      <c r="J48" s="8"/>
-      <c r="K48" s="8"/>
-      <c r="L48" s="8"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="7"/>
     </row>
     <row r="49" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D49" s="5"/>
@@ -699,13 +691,13 @@
       <c r="C50" s="5" t="n">
         <v>43439</v>
       </c>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="8"/>
-      <c r="J50" s="8"/>
-      <c r="K50" s="8"/>
-      <c r="L50" s="8"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
+      <c r="L50" s="7"/>
     </row>
     <row r="51" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D51" s="5"/>
@@ -717,13 +709,13 @@
       <c r="C52" s="5" t="n">
         <v>43441</v>
       </c>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8"/>
-      <c r="J52" s="8"/>
-      <c r="K52" s="8"/>
-      <c r="L52" s="8"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="7"/>
+      <c r="L52" s="7"/>
     </row>
     <row r="53" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D53" s="5"/>
@@ -741,13 +733,13 @@
       <c r="C55" s="5" t="n">
         <v>43444</v>
       </c>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="8"/>
-      <c r="I55" s="8"/>
-      <c r="J55" s="8"/>
-      <c r="K55" s="8"/>
-      <c r="L55" s="8"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
+      <c r="K55" s="7"/>
+      <c r="L55" s="7"/>
     </row>
     <row r="56" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D56" s="5"/>
@@ -759,13 +751,13 @@
       <c r="C57" s="5" t="n">
         <v>43446</v>
       </c>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
-      <c r="H57" s="8"/>
-      <c r="I57" s="8"/>
-      <c r="J57" s="8"/>
-      <c r="K57" s="8"/>
-      <c r="L57" s="8"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7"/>
+      <c r="K57" s="7"/>
+      <c r="L57" s="7"/>
     </row>
     <row r="58" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D58" s="5"/>
@@ -777,13 +769,13 @@
       <c r="C59" s="5" t="n">
         <v>43448</v>
       </c>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="8"/>
-      <c r="I59" s="8"/>
-      <c r="J59" s="8"/>
-      <c r="K59" s="8"/>
-      <c r="L59" s="8"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="7"/>
+      <c r="J59" s="7"/>
+      <c r="K59" s="7"/>
+      <c r="L59" s="7"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/PERSONAL-ATENDANCE.xlsx
+++ b/PERSONAL-ATENDANCE.xlsx
@@ -1,228 +1,1052 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView windowWidth="13545" windowHeight="4530" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
   <si>
-    <t xml:space="preserve">PERSONAL ATENDANCE</t>
+    <t>PERSONAL ATENDANCE</t>
   </si>
   <si>
-    <t xml:space="preserve">KELAS INTRO TO PROGRAMING</t>
+    <t>KELAS INTRO TO PROGRAMING</t>
   </si>
   <si>
-    <t xml:space="preserve">NO</t>
+    <t>NO</t>
   </si>
   <si>
-    <t xml:space="preserve">WEEK</t>
+    <t>WEEK</t>
   </si>
   <si>
-    <t xml:space="preserve">KEHADIRAN</t>
+    <t>KEHADIRAN</t>
   </si>
   <si>
-    <t xml:space="preserve">TUGAS</t>
+    <t>TUGAS</t>
   </si>
   <si>
-    <t xml:space="preserve">ADA</t>
+    <t>ADA</t>
   </si>
   <si>
-    <t xml:space="preserve">TIDAK DI INPUT DISINI</t>
+    <t>TIDAK DI INPUT DISINI</t>
   </si>
   <si>
-    <t xml:space="preserve">Week 2</t>
+    <t>Week 2</t>
   </si>
   <si>
-    <t xml:space="preserve">Week 3</t>
+    <t>Week 3</t>
   </si>
   <si>
-    <t xml:space="preserve">Week 4</t>
+    <t>Week 4</t>
   </si>
   <si>
-    <t xml:space="preserve">Week 5</t>
+    <t>Week 5</t>
   </si>
   <si>
-    <t xml:space="preserve">Week 6</t>
+    <t>Week 6</t>
   </si>
   <si>
-    <t xml:space="preserve">Week 7</t>
+    <t>Week 7</t>
   </si>
   <si>
-    <t xml:space="preserve">Week 8</t>
+    <t>Week 8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="DD\-MMM\-YY"/>
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="dd\-mmm\-yy"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="0"/>
       <charset val="134"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="0"/>
-      <charset val="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+  <borders count="9">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="5C616C"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A2:N1048576"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:N59"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="7.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="1" width="9.13"/>
+    <col min="1" max="1" width="5.01333333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28666666666667" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5666666666667" style="1" customWidth="1"/>
+    <col min="4" max="5" width="7.86666666666667" style="1" customWidth="1"/>
+    <col min="6" max="1025" width="9.13333333333333" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="2:14">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -239,7 +1063,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="2:14">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
@@ -256,7 +1080,7 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:14">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -280,21 +1104,21 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:14">
       <c r="A5" s="3"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="0"/>
-      <c r="E5" s="0"/>
+      <c r="D5"/>
+      <c r="E5"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:14">
+      <c r="A6" s="1">
         <v>1</v>
       </c>
       <c r="B6" s="4"/>
-      <c r="C6" s="5" t="n">
+      <c r="C6" s="5">
         <v>43395</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -313,7 +1137,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="2:14">
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -321,11 +1145,11 @@
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:12">
+      <c r="A8" s="1">
         <v>2</v>
       </c>
-      <c r="C8" s="5" t="n">
+      <c r="C8" s="5">
         <v>43397</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -341,14 +1165,14 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="3:3">
       <c r="C9" s="5"/>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:12">
+      <c r="A10" s="1">
         <v>3</v>
       </c>
-      <c r="C10" s="5" t="n">
+      <c r="C10" s="5">
         <v>43399</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -364,16 +1188,16 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
     </row>
-    <row r="12" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="2:2">
       <c r="B12" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
+    <row r="13" spans="1:12">
+      <c r="A13" s="1">
         <v>4</v>
       </c>
-      <c r="C13" s="5" t="n">
+      <c r="C13" s="5">
         <v>43402</v>
       </c>
       <c r="D13" s="6" t="s">
@@ -389,11 +1213,11 @@
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:12">
+      <c r="A15" s="1">
         <v>5</v>
       </c>
-      <c r="C15" s="5" t="n">
+      <c r="C15" s="5">
         <v>43404</v>
       </c>
       <c r="D15" s="6" t="s">
@@ -409,49 +1233,56 @@
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
+    <row r="17" spans="1:12">
+      <c r="A17" s="1">
         <v>6</v>
       </c>
-      <c r="C17" s="5" t="n">
+      <c r="C17" s="5">
         <v>43406</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-    </row>
-    <row r="19" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="19" spans="2:2">
       <c r="B19" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
+    <row r="20" spans="1:12">
+      <c r="A20" s="1">
         <v>7</v>
       </c>
-      <c r="C20" s="5" t="n">
+      <c r="C20" s="5">
         <v>43409</v>
       </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
+      <c r="D20" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="1">
         <v>8</v>
       </c>
-      <c r="C22" s="5" t="n">
+      <c r="C22" s="5">
         <v>43411</v>
       </c>
       <c r="F22" s="7"/>
@@ -462,11 +1293,11 @@
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="n">
+    <row r="24" spans="1:12">
+      <c r="A24" s="1">
         <v>9</v>
       </c>
-      <c r="C24" s="5" t="n">
+      <c r="C24" s="5">
         <v>43413</v>
       </c>
       <c r="F24" s="7"/>
@@ -477,20 +1308,20 @@
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
     </row>
-    <row r="25" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="4:4">
       <c r="D25" s="5"/>
     </row>
-    <row r="26" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="2:4">
       <c r="B26" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D26" s="5"/>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="n">
+    <row r="27" spans="1:12">
+      <c r="A27" s="1">
         <v>10</v>
       </c>
-      <c r="C27" s="5" t="n">
+      <c r="C27" s="5">
         <v>43416</v>
       </c>
       <c r="F27" s="7"/>
@@ -501,14 +1332,14 @@
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
     </row>
-    <row r="28" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="4:4">
       <c r="D28" s="5"/>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="n">
+    <row r="29" spans="1:12">
+      <c r="A29" s="1">
         <v>11</v>
       </c>
-      <c r="C29" s="5" t="n">
+      <c r="C29" s="5">
         <v>43418</v>
       </c>
       <c r="F29" s="7"/>
@@ -519,14 +1350,14 @@
       <c r="K29" s="7"/>
       <c r="L29" s="7"/>
     </row>
-    <row r="30" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="4:4">
       <c r="D30" s="5"/>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="n">
+    <row r="31" spans="1:12">
+      <c r="A31" s="1">
         <v>12</v>
       </c>
-      <c r="C31" s="5" t="n">
+      <c r="C31" s="5">
         <v>43420</v>
       </c>
       <c r="F31" s="7"/>
@@ -537,20 +1368,20 @@
       <c r="K31" s="7"/>
       <c r="L31" s="7"/>
     </row>
-    <row r="32" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="4:4">
       <c r="D32" s="5"/>
     </row>
-    <row r="33" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="2:4">
       <c r="B33" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D33" s="5"/>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="n">
+    <row r="34" spans="1:12">
+      <c r="A34" s="1">
         <v>13</v>
       </c>
-      <c r="C34" s="5" t="n">
+      <c r="C34" s="5">
         <v>43423</v>
       </c>
       <c r="F34" s="7"/>
@@ -561,14 +1392,14 @@
       <c r="K34" s="7"/>
       <c r="L34" s="7"/>
     </row>
-    <row r="35" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="4:4">
       <c r="D35" s="5"/>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="n">
+    <row r="36" spans="1:12">
+      <c r="A36" s="1">
         <v>14</v>
       </c>
-      <c r="C36" s="5" t="n">
+      <c r="C36" s="5">
         <v>43425</v>
       </c>
       <c r="F36" s="7"/>
@@ -579,14 +1410,14 @@
       <c r="K36" s="7"/>
       <c r="L36" s="7"/>
     </row>
-    <row r="37" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="4:4">
       <c r="D37" s="5"/>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="n">
+    <row r="38" spans="1:12">
+      <c r="A38" s="1">
         <v>15</v>
       </c>
-      <c r="C38" s="5" t="n">
+      <c r="C38" s="5">
         <v>43427</v>
       </c>
       <c r="F38" s="7"/>
@@ -597,20 +1428,20 @@
       <c r="K38" s="7"/>
       <c r="L38" s="7"/>
     </row>
-    <row r="39" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="4:4">
       <c r="D39" s="5"/>
     </row>
-    <row r="40" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="2:4">
       <c r="B40" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D40" s="5"/>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="n">
+    <row r="41" spans="1:12">
+      <c r="A41" s="1">
         <v>16</v>
       </c>
-      <c r="C41" s="5" t="n">
+      <c r="C41" s="5">
         <v>43430</v>
       </c>
       <c r="F41" s="7"/>
@@ -621,14 +1452,14 @@
       <c r="K41" s="7"/>
       <c r="L41" s="7"/>
     </row>
-    <row r="42" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="4:4">
       <c r="D42" s="5"/>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="n">
+    <row r="43" spans="1:12">
+      <c r="A43" s="1">
         <v>17</v>
       </c>
-      <c r="C43" s="5" t="n">
+      <c r="C43" s="5">
         <v>43432</v>
       </c>
       <c r="F43" s="7"/>
@@ -639,14 +1470,14 @@
       <c r="K43" s="7"/>
       <c r="L43" s="7"/>
     </row>
-    <row r="44" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="4:4">
       <c r="D44" s="5"/>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="n">
+    <row r="45" spans="1:12">
+      <c r="A45" s="1">
         <v>18</v>
       </c>
-      <c r="C45" s="5" t="n">
+      <c r="C45" s="5">
         <v>43434</v>
       </c>
       <c r="F45" s="7"/>
@@ -657,20 +1488,20 @@
       <c r="K45" s="7"/>
       <c r="L45" s="7"/>
     </row>
-    <row r="46" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="4:4">
       <c r="D46" s="5"/>
     </row>
-    <row r="47" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="2:4">
       <c r="B47" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D47" s="5"/>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="n">
+    <row r="48" spans="1:12">
+      <c r="A48" s="1">
         <v>19</v>
       </c>
-      <c r="C48" s="5" t="n">
+      <c r="C48" s="5">
         <v>43437</v>
       </c>
       <c r="F48" s="7"/>
@@ -681,14 +1512,14 @@
       <c r="K48" s="7"/>
       <c r="L48" s="7"/>
     </row>
-    <row r="49" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="4:4">
       <c r="D49" s="5"/>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="n">
+    <row r="50" spans="1:12">
+      <c r="A50" s="1">
         <v>20</v>
       </c>
-      <c r="C50" s="5" t="n">
+      <c r="C50" s="5">
         <v>43439</v>
       </c>
       <c r="F50" s="7"/>
@@ -699,14 +1530,14 @@
       <c r="K50" s="7"/>
       <c r="L50" s="7"/>
     </row>
-    <row r="51" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="4:4">
       <c r="D51" s="5"/>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="n">
+    <row r="52" spans="1:12">
+      <c r="A52" s="1">
         <v>21</v>
       </c>
-      <c r="C52" s="5" t="n">
+      <c r="C52" s="5">
         <v>43441</v>
       </c>
       <c r="F52" s="7"/>
@@ -717,20 +1548,20 @@
       <c r="K52" s="7"/>
       <c r="L52" s="7"/>
     </row>
-    <row r="53" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="4:4">
       <c r="D53" s="5"/>
     </row>
-    <row r="54" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="2:4">
       <c r="B54" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D54" s="5"/>
     </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="1" t="n">
+    <row r="55" spans="1:12">
+      <c r="A55" s="1">
         <v>22</v>
       </c>
-      <c r="C55" s="5" t="n">
+      <c r="C55" s="5">
         <v>43444</v>
       </c>
       <c r="F55" s="7"/>
@@ -741,14 +1572,14 @@
       <c r="K55" s="7"/>
       <c r="L55" s="7"/>
     </row>
-    <row r="56" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="4:4">
       <c r="D56" s="5"/>
     </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1" t="n">
+    <row r="57" spans="1:12">
+      <c r="A57" s="1">
         <v>23</v>
       </c>
-      <c r="C57" s="5" t="n">
+      <c r="C57" s="5">
         <v>43446</v>
       </c>
       <c r="F57" s="7"/>
@@ -759,14 +1590,14 @@
       <c r="K57" s="7"/>
       <c r="L57" s="7"/>
     </row>
-    <row r="58" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="4:4">
       <c r="D58" s="5"/>
     </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="1" t="n">
+    <row r="59" spans="1:12">
+      <c r="A59" s="1">
         <v>24</v>
       </c>
-      <c r="C59" s="5" t="n">
+      <c r="C59" s="5">
         <v>43448</v>
       </c>
       <c r="F59" s="7"/>
@@ -777,33 +1608,12 @@
       <c r="K59" s="7"/>
       <c r="L59" s="7"/>
     </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="31">
     <mergeCell ref="B2:N2"/>
     <mergeCell ref="B3:N3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:C5"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="F4:L4"/>
-    <mergeCell ref="M4:N5"/>
     <mergeCell ref="F6:L6"/>
     <mergeCell ref="F8:L8"/>
     <mergeCell ref="F10:L10"/>
@@ -828,13 +1638,12 @@
     <mergeCell ref="F55:L55"/>
     <mergeCell ref="F57:L57"/>
     <mergeCell ref="F59:L59"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="M4:N5"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/PERSONAL-ATENDANCE.xlsx
+++ b/PERSONAL-ATENDANCE.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="15">
   <si>
     <t>PERSONAL ATENDANCE</t>
   </si>
@@ -95,18 +95,26 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -115,21 +123,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -139,6 +132,111 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -146,106 +244,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -260,187 +260,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,15 +451,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -474,6 +465,24 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -537,15 +546,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -554,138 +554,138 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1033,8 +1033,8 @@
   <sheetPr/>
   <dimension ref="A2:N59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -1285,13 +1285,18 @@
       <c r="C22" s="5">
         <v>43411</v>
       </c>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
+      <c r="D22" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="1">
@@ -1300,13 +1305,18 @@
       <c r="C24" s="5">
         <v>43413</v>
       </c>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
+      <c r="D24" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
     </row>
     <row r="25" spans="4:4">
       <c r="D25" s="5"/>

--- a/PERSONAL-ATENDANCE.xlsx
+++ b/PERSONAL-ATENDANCE.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="13545" windowHeight="4530" tabRatio="500"/>
+    <workbookView windowWidth="13545" windowHeight="4665" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="15">
   <si>
     <t>PERSONAL ATENDANCE</t>
   </si>
@@ -69,9 +69,9 @@
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="dd\-mmm\-yy"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -93,6 +93,104 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -100,8 +198,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -109,7 +208,36 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -122,134 +250,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -266,13 +266,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -284,163 +428,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,35 +454,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -502,6 +478,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -513,6 +498,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -554,138 +554,138 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1334,13 +1334,18 @@
       <c r="C27" s="5">
         <v>43416</v>
       </c>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
+      <c r="D27" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
     </row>
     <row r="28" spans="4:4">
       <c r="D28" s="5"/>
@@ -1352,13 +1357,18 @@
       <c r="C29" s="5">
         <v>43418</v>
       </c>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
+      <c r="D29" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
     </row>
     <row r="30" spans="4:4">
       <c r="D30" s="5"/>
